--- a/xlsx/马丁·路德·金纪念日_intext.xlsx
+++ b/xlsx/马丁·路德·金纪念日_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_马丁·路德·金纪念日</t>
+    <t>政策_政策_美国_马丁·路德·金纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>種族歧視</t>
+    <t>种族歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1968%E5%B9%B4</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%86%E7%B4%8D%C2%B7%E9%9B%B7%E6%A0%B9</t>
   </si>
   <si>
-    <t>隆納·雷根</t>
+    <t>隆纳·雷根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1983%E5%B9%B4</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E8%A5%BF%C2%B7%E8%B5%AB%E7%88%BE%E5%A7%86%E6%96%AF</t>
   </si>
   <si>
-    <t>傑西·赫爾姆斯</t>
+    <t>杰西·赫尔姆斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%BA%A5%E5%87%B1%E6%81%A9</t>
   </si>
   <si>
-    <t>約翰·麥凱恩</t>
+    <t>约翰·麦凯恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E4%BD%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坦佩 (亞利桑那州)</t>
+    <t>坦佩 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E8%90%A8%E8%BF%AA%E7%BA%B3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D</t>
   </si>
   <si>
-    <t>南卡羅來納</t>
+    <t>南卡罗来纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%9D%8E</t>
   </si>
   <si>
-    <t>羅伯特·李</t>
+    <t>罗伯特·李</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E7%89%86%E5%82%91%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>石牆傑克森</t>
+    <t>石墙杰克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6%E5%88%B6</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>Template talk-美國節日</t>
+    <t>Template talk-美国节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%81%B0%E6%98%9F%E6%9C%9F%E4%B8%89</t>
   </si>
   <si>
-    <t>聖灰星期三</t>
+    <t>圣灰星期三</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%81%AF%E8%8A%82</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E6%97%A5</t>
   </si>
   <si>
-    <t>耶穌受難日</t>
+    <t>耶稣受难日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%98%8E%E8%8A%82</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%BA%E6%82%94%E6%98%9F%E6%9C%9F%E4%BA%8C</t>
   </si>
   <si>
-    <t>懺悔星期二</t>
+    <t>忏悔星期二</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%9E%9D%E4%B8%BB%E6%97%A5</t>
